--- a/PLSstatic_predicted_variables_matrix_6.xlsx
+++ b/PLSstatic_predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:AV67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,135 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +595,135 @@
       <c r="E2" t="n">
         <v>-0.2932659921515123</v>
       </c>
+      <c r="F2" t="n">
+        <v>-0.2847023640284659</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.2775653087072425</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.2716141281054895</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2666552268529502</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.2627343429597769</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.2594671910027589</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.2567618568565036</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.2545411359259752</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-0.2526201880250266</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.2510909530912919</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.2499008151772776</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.2490045806597646</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2483630933081941</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.2478703456830694</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.2475788743682337</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-0.2474602015914052</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-0.2474888321495395</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.2476421968743356</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.2478457732828464</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.2481389395492589</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.2485058161889785</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.2489832466373393</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.2495068234079492</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.2500651228503425</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.2506485963588517</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.2512489604184489</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.2518590370013459</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.2524726412466242</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.2530292750092836</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.2535788692892074</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.254118312984999</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.254644767100912</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.2551559312218207</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.2555836912122855</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.2559930338649343</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.2563836779100921</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.2568255255286874</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2571762263327285</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2575077337605439</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2578205914994869</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2581153037510755</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.258392472257126</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.2586527848871141</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +741,135 @@
       <c r="E3" t="n">
         <v>0.207584432706027</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.2156779873767121</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2221893635483771</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.2274046564688192</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.2315554185876588</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2347797397578418</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2373113857288231</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2392662506596963</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2407420839515285</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.241819358359221</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.24256372093395</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.2430345452191636</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.2432819754976643</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2433485428906035</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2432542276356532</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2430524794181336</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.24276760253032</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2424211696580047</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.2420316284078297</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.2416049249034107</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.2411719181666911</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.240741140468876</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2403227385190889</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2399146109651065</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.2395241383072839</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.2391563079278106</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.2388148852966842</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.2385026530901464</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.23822155909944</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.2379859541671578</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.2377864773822146</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.2376221037025952</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0.2374921172247181</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.237395510421345</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.2373532733145995</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.2373427618473345</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.2373617063453406</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.2373827649008242</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.2374555971345958</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.2375521881173015</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0.2376703058932715</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0.2378080789515676</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.2379636961000998</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.2381354091438059</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +887,135 @@
       <c r="E4" t="n">
         <v>0.1845611541845973</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1913070021544692</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.197012588008349</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2018463323210172</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2059442262989644</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2093101180656473</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2121730436282846</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2145969553835276</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2166402307069289</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2184068218801108</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.2198765868761944</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.2210875651440584</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2220727265672873</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.2228611059838676</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2235109733359956</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.224014556473837</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.2243891615366312</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2246528488484787</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2248221527257918</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.2249434583632366</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.2250031113491101</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.2250091281694433</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.2249376737887037</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.224828413778918</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.2246932848081768</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0.2245399911480529</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0.2243750285454351</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.2242040017966307</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0.224031723712313</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0.223906217035693</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0.2237886402582929</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0.2236796059431908</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.2235813648994988</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.223495804387782</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.2234783606112802</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.223475828950426</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.223487442667133</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.2234566852186686</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.2234997855787191</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0.2235585022182214</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0.2236315807129157</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0.2237186505302566</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0.2238192679967745</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0.2239328811861263</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1033,135 @@
       <c r="E5" t="n">
         <v>-0.08085696270711706</v>
       </c>
+      <c r="F5" t="n">
+        <v>-0.0766765863487226</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.07340394246269255</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.07087508666713682</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-0.06895724271885589</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.06757217466250823</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.06659789069342595</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.0659624586001914</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.06560683536750253</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.06546026991201506</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.06549830472616285</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.06568767438034004</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.06599987562966388</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.06641048733566532</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.06686686694576532</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.06737797018353839</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.06792996207617094</v>
+      </c>
+      <c r="V5" t="n">
+        <v>-0.06851093239667619</v>
+      </c>
+      <c r="W5" t="n">
+        <v>-0.06911050273556975</v>
+      </c>
+      <c r="X5" t="n">
+        <v>-0.06967400794085066</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>-0.07023780202998633</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>-0.07079597786790523</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.07139481630094319</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.07197918509201</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.07254573880413213</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.07309149554381607</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.07361412848811932</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.07411190744324164</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.0745836213656986</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.07496890128412773</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.07532984920256307</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.07566581050549911</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.07597682323575922</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.07626325116808519</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.07645928760113231</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.07663640184923839</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.07679465547165773</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.07700134896315858</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.07711926390887239</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.07722153942658097</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.07730881854154165</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.07738199629802966</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.07744203366758576</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.0774899109817378</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1179,135 @@
       <c r="E6" t="n">
         <v>0.1912506421665178</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1946829119889699</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1972559397224369</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1991272258242883</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.2004260143086923</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2013633517818971</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2019023013875418</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2021183538478203</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2020754451236942</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.2017416213284886</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.2012738582507905</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.200704253993512</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2000603006852052</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1993654841606501</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.198593531387033</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.1978280434573601</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.1970773780565235</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1963493873627807</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.1956508364751933</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.1949760810591332</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.1943518198974505</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.1937779645912484</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.1932511389308005</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.1927692017032175</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1923338529381079</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1919454703713487</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1916037796853938</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.1913079982093606</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0.1910569283647914</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0.1908721555984591</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0.1907276328626743</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0.1906213503305295</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0.1905513752900963</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.1905155768404279</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.190540512330767</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.1905913103981064</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.19066645457509</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.1907355608498189</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0.1908584677977192</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0.1909994390363957</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0.1911567703282927</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0.1913288715055817</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0.1915141515619136</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0.1917110570762667</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1325,135 @@
       <c r="E7" t="n">
         <v>-0.4377030812587487</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.4309852594184615</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.4254582137119908</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.4209179673583991</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.4172010843442475</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.4143309218706153</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.4120155983152772</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.4101736838335844</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.4087376395843159</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.4075436739124042</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.4066636812592318</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.4060558842318766</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.4056841286296481</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.4055168937614706</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.4054381054418364</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.4055166617341808</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.4057310817860703</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.4060618326122692</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.4064912768903796</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.4069169959663812</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.4074143536771054</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.407970753582395</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.4086606619298372</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.4093848434016886</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.4101340525333757</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.4109002763698538</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.4116765151687436</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.4124566819292342</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.4132355185394889</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.4139180690876271</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.4145944108845283</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.4152610773698668</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.4159151828355915</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.4165544157016748</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.4170760807254306</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.4175843048803288</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.4180776867798678</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.418657771733206</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.4191133958072631</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.4195528533077548</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.4199759970516238</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.4203828847195905</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.4207737623667647</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.4211490220600636</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -568,6 +1471,135 @@
       <c r="E8" t="n">
         <v>-0.1980977047528165</v>
       </c>
+      <c r="F8" t="n">
+        <v>-0.190535009988899</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.1839445180675582</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.1781836268539695</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.1731381427624702</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.168875873696872</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.165117268531631</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.161813122111729</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1589162011242656</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1563033427638648</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.1540381198577716</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.1520869185544857</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.1504199400292631</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.1490101564397931</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.1477916774087516</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.1467855027855813</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.145973404571506</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.1453353436860941</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.1448523504307177</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.1444776424253442</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1442212405033216</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1440720775596468</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.144044701959127</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1441004655399128</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1442233974508065</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.1444024614851625</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.1446279428353229</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.1448911097073988</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.1451841332322866</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.1454632812908241</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.1457568749108668</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1460620747189801</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.14637410757761</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.1466887170771439</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.1469544637865097</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.1472154984963318</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.1474711348661289</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.1477712674217528</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.148008626335143</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.1482343985356075</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.1484489420728327</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.1486516375531689</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.1488420521158094</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0.1490199810400842</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -585,6 +1617,135 @@
       <c r="E9" t="n">
         <v>-0.3813573186127243</v>
       </c>
+      <c r="F9" t="n">
+        <v>-0.370803492334437</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.3620209573890004</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-0.3547260285498028</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-0.3486875983735702</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-0.3438752886733626</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-0.3399221261300694</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.3367103151202594</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.334139027564409</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.332048103696878</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-0.3304569055358811</v>
+      </c>
+      <c r="P9" t="n">
+        <v>-0.3292974025453922</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.3285103305924518</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-0.3280437321640249</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-0.3278179399153313</v>
+      </c>
+      <c r="T9" t="n">
+        <v>-0.3278291252775098</v>
+      </c>
+      <c r="U9" t="n">
+        <v>-0.3280414133841245</v>
+      </c>
+      <c r="V9" t="n">
+        <v>-0.3284221982892632</v>
+      </c>
+      <c r="W9" t="n">
+        <v>-0.3289424571995699</v>
+      </c>
+      <c r="X9" t="n">
+        <v>-0.3295485496871493</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.3302423770390494</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.3310051021032144</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.331850966215389</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.3327367976769032</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.33364814915873</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.3345733573665808</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.3355025136393325</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.3364272240419732</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.3373404459452154</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>-0.3381896736906226</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.3390146991975704</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.3398126083028273</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.3405807544774992</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.3413172231365142</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.3419591394143021</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.3425673271336983</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.3431421823987232</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.3437510313662728</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.3442582164631062</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.3447342005311045</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.3451804377568601</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.3455982651253807</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.3459891296589245</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-0.3463545608382064</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -602,6 +1763,135 @@
       <c r="E10" t="n">
         <v>0.3649246945915866</v>
       </c>
+      <c r="F10" t="n">
+        <v>0.3717958175709589</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.3774757345905408</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.3821640375821989</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.3860237347572884</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.3891343206612473</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.391688360994278</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3937691062066362</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3954483193824643</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.3967949543491427</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.3978466600588639</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.3986500002747198</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.3992449988821664</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.3996662522360857</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.3999342415219051</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.4000880567900749</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.4001491516866743</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.400137032165342</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.4000687112820377</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.3999517675273925</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.399812060208638</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.3996584931447505</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.399501153336161</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.3993404193063342</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.3991840966602971</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.3990377028724377</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.3989056330925967</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.3987913693777003</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.3986976024082554</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.3986378981805568</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.3986050701998968</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.3985988844001169</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0.3986194294176861</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0.3986664758303392</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0.3987598727669788</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0.398879756785904</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.3990244264092955</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.399168826743917</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.3993595372666628</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0.399571068784384</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0.3998015875025746</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0.4000496041718645</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0.4003136566018292</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0.4005923089491985</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -619,6 +1909,135 @@
       <c r="E11" t="n">
         <v>-0.2300497141424736</v>
       </c>
+      <c r="F11" t="n">
+        <v>-0.2250732260972678</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.2209932948488605</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.2176550200452533</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-0.2149345901658741</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.2128345918906917</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-0.2111536809966668</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-0.2098334515046248</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.2088212404014465</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.2079988613047488</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-0.2074049161212811</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-0.2070085982854559</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.2067834063843493</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-0.2067061308186418</v>
+      </c>
+      <c r="S11" t="n">
+        <v>-0.2066858639560469</v>
+      </c>
+      <c r="T11" t="n">
+        <v>-0.2067720767859968</v>
+      </c>
+      <c r="U11" t="n">
+        <v>-0.2069527565494522</v>
+      </c>
+      <c r="V11" t="n">
+        <v>-0.207214548827641</v>
+      </c>
+      <c r="W11" t="n">
+        <v>-0.2075450112385079</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-0.2078557332312796</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.2082116047199851</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.2086073675721478</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.2091143345948356</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.2096465657514128</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.2101941089169947</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.210750811224218</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.2113115006046087</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>-0.2118717058781273</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.2124275801182493</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-0.212890317665012</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>-0.213344789882798</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>-0.213790417765378</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-0.2142250769250557</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.2146469716413177</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.2149599576810065</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.2152617761322427</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.2155525623385452</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.2159270043320212</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.2161883563018877</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.2164364164679418</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.2166719566635507</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.2168949796161495</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.2171056034151783</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-0.2173040852838485</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -636,6 +2055,135 @@
       <c r="E12" t="n">
         <v>-0.1164561336645319</v>
       </c>
+      <c r="F12" t="n">
+        <v>-0.1077879543526719</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.101036021330942</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.09586182975764009</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.09198862899700057</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-0.08921125148831673</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-0.08729850411439297</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-0.08610402231888264</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.08550310231129171</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.08540034656444472</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-0.0856920835509641</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-0.08630274829909014</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.08716794993807983</v>
+      </c>
+      <c r="R12" t="n">
+        <v>-0.08823268617195168</v>
+      </c>
+      <c r="S12" t="n">
+        <v>-0.08945331418921504</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.09077357349513626</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.0921629791161454</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.09359443187952245</v>
+      </c>
+      <c r="W12" t="n">
+        <v>-0.09504480345902488</v>
+      </c>
+      <c r="X12" t="n">
+        <v>-0.09647537395596208</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.09787827173813868</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.09924378030042835</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.1005950654436737</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.1019004296680421</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.1031515523565164</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.1043432212980795</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.1054718571179543</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>-0.1065351955363968</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.1075320832384679</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>-0.1084079710682886</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>-0.1092161117328104</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>-0.1099589673758333</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-0.1106386682669202</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-0.1112577296003896</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.1117515503446004</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.1121922629312598</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.11258352403153</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1129988583677712</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.1132974700897534</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.1135567731588653</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.1137803178935512</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.1139711947955569</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.1141323913055197</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-0.1142667785191443</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -653,6 +2201,135 @@
       <c r="E13" t="n">
         <v>-0.01787521137956478</v>
       </c>
+      <c r="F13" t="n">
+        <v>-0.02190299989017709</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.02544825903368312</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.0285926927828077</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.03140064276838202</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.03387617334675944</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.03614210611153477</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.03821945751104604</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.04012810374571187</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.04186395441959691</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-0.04344609726582327</v>
+      </c>
+      <c r="P13" t="n">
+        <v>-0.04489036638488696</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-0.04620985053584967</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-0.04741569106143119</v>
+      </c>
+      <c r="S13" t="n">
+        <v>-0.04845134144340157</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-0.04938989914934196</v>
+      </c>
+      <c r="U13" t="n">
+        <v>-0.05023907268905342</v>
+      </c>
+      <c r="V13" t="n">
+        <v>-0.05100696265220612</v>
+      </c>
+      <c r="W13" t="n">
+        <v>-0.05170083006544179</v>
+      </c>
+      <c r="X13" t="n">
+        <v>-0.0522408958348698</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>-0.05272501603664746</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.05315667094751544</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>-0.05362798490783582</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>-0.05404913966198807</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.05442642351520198</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>-0.05476381941152893</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.05506485354689557</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.0553327649667359</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>-0.05557053914978253</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>-0.05569774634806596</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>-0.05580797862029438</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-0.05590148827864753</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-0.05597981711290147</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-0.05604449332975753</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.0560144092963543</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.05598126615235346</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.05594434862057327</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.05598261816415537</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.05593311648125495</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.05588239521773802</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.05582998939115705</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.05577610920543202</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.05572100025059325</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>-0.05566488944698936</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -670,6 +2347,135 @@
       <c r="E14" t="n">
         <v>0.0534853260293027</v>
       </c>
+      <c r="F14" t="n">
+        <v>0.06209743006294591</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.06868698673978837</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.07356443469049602</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.07699512347361104</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.07930457508651573</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0806137030784206</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.08107747167150789</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.08083592700683553</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.07989556965772762</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.07848841785798095</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.07671140089308544</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.07464861132232356</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.07237303992508967</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.06984496887281291</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.06724377700443077</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.06461193107463158</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.06198732478631137</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.05940172475599074</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.05681118498615903</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.05433003017238739</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.0519689665000122</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.04978509025196129</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.04771927274710994</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.04578132812342871</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.04397546589970518</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.04230344040624494</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.04076511208576875</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.03935877306499596</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.03807317302802556</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.03692295190348519</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.03589954425976199</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.03499595929940283</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.03420499824808433</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.03352812671973077</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.03295454766041508</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.03247428049275961</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.03206377697490706</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0.03174426599506912</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0.03149547256095751</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0.03130921688444233</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0.03117872546997575</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0.03109771147678592</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0.03106032153631398</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -687,6 +2493,135 @@
       <c r="E15" t="n">
         <v>-0.05851281480086699</v>
       </c>
+      <c r="F15" t="n">
+        <v>-0.05303024952698862</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.04933148578202531</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.04714154418775592</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-0.04622105332868677</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-0.04622655826974548</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.04710206468680282</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-0.04869922208075014</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.05088477963454117</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.05365390442399499</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-0.05677952882229144</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-0.06016807763364199</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-0.06373863498709484</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-0.06742147489391742</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-0.0712347889280053</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-0.07502928635338599</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.07876445942297651</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.08240606355154481</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-0.08592644445861941</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-0.08934185963085477</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.09257722371535027</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.09562463031512129</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.09846315632415789</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.1011224218934686</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.1035986825543826</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.1058922285183451</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.1080055340050889</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.1099427817775324</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.1117095318287301</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-0.1132928498606116</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-0.1147112958941615</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-0.115975885575275</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-0.1170967616184532</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-0.1180840595930862</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-0.118912895620174</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-0.1196242196749425</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-0.1202297463334155</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.1207793241127658</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.1212043283747225</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1215519826052095</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1218314415944432</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.1220507136854078</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.1222171598324814</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-0.1223375412109014</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -704,6 +2639,135 @@
       <c r="E16" t="n">
         <v>0.3172238401488598</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.3299025401061987</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3399283570239752</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.347654753726224</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.3533942677756488</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.3575481448487109</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.360282717622498</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.3617977892440447</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.3622740514712053</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.3617047601984835</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.3603990991218644</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.3584959711790159</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.3561180056865768</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.3533731346565455</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.350179232622674</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.3468158045405785</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.3433555514574286</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.3398607123086818</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.3363836448687898</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.332820996172889</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.3293842183657059</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.3260990966934867</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.3231021555824187</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.3202648345927254</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.3176004769800124</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.315117541513461</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.3128208863812083</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.3107123431734996</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.3087911891563099</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.3069938984854715</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.3053942719706605</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.3039829044109134</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.3027500834841027</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.3016855377591591</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.3007435209604806</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.2999602868766177</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.2993221362823521</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.2988390297040667</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.2984478919160073</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0.298166118084343</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0.2979822339045395</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0.297885708734181</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0.2978667217191321</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0.2979161459053788</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -721,6 +2785,135 @@
       <c r="E17" t="n">
         <v>0.4974522968209164</v>
       </c>
+      <c r="F17" t="n">
+        <v>0.5015057347365954</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5034152990432839</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5036291668291111</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.5025165691741129</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5005824999647693</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.497870787351343</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.4945820583516879</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.4908805745021959</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.4867453709550912</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.4824684354863134</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.4781442420362778</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.473849556509818</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.4696459326128293</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.4654786811827386</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0.4615130001681423</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.4577762855324161</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.4542865027469443</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.4510548273301878</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.4480295866470728</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.445288163817515</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.4428263050819488</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.4406707231097644</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.4387603648284878</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.437083723190732</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.4356296386677695</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.4343860170995928</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.4333400462523026</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.432478480287821</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.4317766013970182</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.4312383487112962</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.4308499174645365</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.4305968056953336</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.4304651144614612</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.4304340933440369</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.4305019539457968</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.430656892013396</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.4308949980058339</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.4311879137944858</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0.431535546933285</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0.4319297652220435</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0.4323627037653212</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0.4328273003053066</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0.4333172857594444</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -738,6 +2931,135 @@
       <c r="E18" t="n">
         <v>-0.08362716198235869</v>
       </c>
+      <c r="F18" t="n">
+        <v>-0.08782055679257481</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.09243297255964988</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.0972973148266903</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.1022808180555791</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.107202069201091</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.1120795362593106</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.1168484825510736</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1214610162009443</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.1258810880632274</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.1300687811863767</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.1340065855983232</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.13768402081895</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.141096443305368</v>
+      </c>
+      <c r="S18" t="n">
+        <v>-0.1441899184313309</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.14701725000194</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.1495850600995979</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-0.1519036316501411</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-0.153985105510843</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.1557645354401024</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.1573352100294474</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.1587111745203565</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.1599879459916705</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-0.1610985300412083</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>-0.1620585173325558</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.1628815784351728</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>-0.1635807419689514</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.1641684192537494</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>-0.1646563527202049</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-0.164984192145321</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>-0.1652378194350938</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-0.1654263092151375</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-0.1655588527693768</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-0.1656438166899463</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.1656232883906109</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-0.1655737669978709</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>-0.1655008401181538</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>-0.165469266921855</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>-0.1653630596418072</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.1652478365749785</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1651265795929477</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1650022029111323</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.164877146533589</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>-0.1647534061721513</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -755,6 +3077,135 @@
       <c r="E19" t="n">
         <v>0.3661676613869672</v>
       </c>
+      <c r="F19" t="n">
+        <v>0.3636615902800918</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3606824354188862</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.3573584209428587</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.353796796435624</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3502673008243308</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.3466100362490735</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.3428980240071821</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.3391878620136906</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.3354487134968012</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.3318326008546474</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.3283627364083367</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.3250574067226068</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.3219302675343415</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.3190022593014935</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.3162874552357629</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.3137857271503136</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.3114933036085715</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.3094048476800034</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.3075777343791076</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.3059454120007861</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.3044994250785525</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.3031506119860904</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.3019660608369795</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.3009333991387892</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.3000426664824616</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.2992840610586248</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.2986478671515722</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2981245373969965</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.2977922138333932</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.2975475888551441</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.2973841222466922</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.2972937815246596</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.2972688159729996</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.2973896943906568</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.2975530955074636</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.2977550243427443</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.297907863828368</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.2981787232572858</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.2984718008620334</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.2987842727745235</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0.2991127399130707</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0.2994540705439053</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.299805464254811</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -772,6 +3223,135 @@
       <c r="E20" t="n">
         <v>0.2464143784190407</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.2537947502183493</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.2592138290824675</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.2629284554747053</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2651716472555968</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.26630154339236</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.266385563847613</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2655827208506848</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.2640365062992185</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2617326463463797</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.2589303006947455</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.2557422994052909</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.2522679690027102</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.2485942067031904</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.2446664175845337</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.2406955584007042</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.236740283657174</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.2328488320097293</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.2290606396702066</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.2253088091898481</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.2217390938098158</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2183697159852479</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.2152859553118205</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.2124009678529653</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.2097196281098144</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.2072441269656413</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.2049739117926994</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.2029060964838691</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.2010358656736573</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.1993265265335983</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1978144240874903</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1964887084971198</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.1953377377911847</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.1943496640215348</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.1935017040844685</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1928021550552038</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1922373790504829</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.1917965906471568</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.1914585963151689</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.1912190654880982</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0.1910671619388402</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0.1909926741707978</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0.1909861784129213</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0.191039021819591</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -789,6 +3369,135 @@
       <c r="E21" t="n">
         <v>0.4991957018637374</v>
       </c>
+      <c r="F21" t="n">
+        <v>0.5082570267568207</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5155422102514953</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5212648963313632</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.5256193383247693</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5289272420958906</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5312174883323849</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.5326297519902403</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.533288385192168</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.5331457430975245</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.5324706476687046</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.5313591643153291</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.5298974674128634</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.52816227657587</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.5260709052166724</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.5238519178145647</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.521558927458334</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.5192367814808891</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.5169234897378762</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.5145320878185647</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.512228436006756</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.5100339685992054</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.5080564767775037</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.5061962469689025</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.5044610121713441</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.5028572432904448</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.5013889234152021</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.5000577897194775</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.4988636608362331</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.4977572938447371</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.496793489424712</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.4959676628833269</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.4952731977701118</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.4947028284083408</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.4942205189130555</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.4938531328314497</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.4935924820163935</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.4934491874436934</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.4933734824855371</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.4933776345270994</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0.4934542495176802</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0.4935957286371075</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0.4937948684099199</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0.494044926903942</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -806,6 +3515,135 @@
       <c r="E22" t="n">
         <v>0.3137551627512344</v>
       </c>
+      <c r="F22" t="n">
+        <v>0.3176536836778069</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3198667466887211</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.3206938954719502</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3203904339848041</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.3194130392326072</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3176921735200348</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.3153824081962333</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.3126173344230724</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.3093217328366263</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.3058138426407113</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.3021769142953165</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.2984814061804161</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.2947864894352202</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.2910113390578012</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.2873567286750392</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.28385130023641</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.28051750795876</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.2773721258612828</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.2743504750667878</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.2715599814552016</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.2690002621137879</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2667180915339872</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2646413396084979</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2627664116191042</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2610875629004434</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2595975580802583</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2582880213414099</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.257149725271779</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2561585006684023</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2553256589770184</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.2546390902255276</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.2540869824480547</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.2536577706088015</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.2533350133609824</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.2531159879974154</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.2529895831056049</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.2529485705959304</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.2529760984766902</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.253067058414069</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.253213110894891</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.2534066625739563</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.2536407735162199</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0.2539091402697561</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -823,6 +3661,135 @@
       <c r="E23" t="n">
         <v>-0.1079229843893432</v>
       </c>
+      <c r="F23" t="n">
+        <v>-0.1073964217403467</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.1078531886618207</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.1091189730945685</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-0.1110420481138897</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-0.1132984059496513</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-0.1159909531133072</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-0.1190213433500114</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-0.1223026458085451</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.1258849904308514</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.1295497620521886</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.1332432436218604</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-0.1369198982291047</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-0.1405414855327446</v>
+      </c>
+      <c r="S23" t="n">
+        <v>-0.1441378635000376</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.1475979185394936</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.1509051989439505</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.1540468083326471</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-0.157013581248212</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-0.1598132982979186</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>-0.1624133486553404</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.1648171604701083</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.1670354014681127</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-0.1690784680720101</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.1709502393248872</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.1726566343099623</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>-0.1742045886521519</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.1756017652190798</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.1768563476723001</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>-0.1779464697344829</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>-0.1789084372811992</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>-0.179752515819129</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.1804882635911885</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>-0.1811249647297792</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>-0.1816343721343543</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-0.1820629974002638</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>-0.1824196633414069</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>-0.1827494146872053</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>-0.182983862707855</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>-0.1831686611538161</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.1833103785180361</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.1834148132358345</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.1834872508534132</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>-0.1835324909989342</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -840,6 +3807,135 @@
       <c r="E24" t="n">
         <v>2.20737698853957</v>
       </c>
+      <c r="F24" t="n">
+        <v>2.129490325868759</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.058362698576165</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.993084462928006</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.932970444256096</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.87950534835704</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.829867582007719</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.783764488310676</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.741000636996799</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.700406965857055</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.66311180960204</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.628968125504129</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.597832433575529</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.56956437584515</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.54364185886073</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.520458946175436</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.4998375692182</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.481617747216065</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.465640929177066</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.451659255650914</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.439693798016473</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1.429552502466087</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.421093243980767</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1.414086408421674</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1.408422107457664</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1.403972537684038</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.400614721137831</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.398232478163927</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1.396716699165441</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1.395954510111453</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1.395882405943302</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1.39638802375143</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1.39738494928637</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1.398796193833282</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1.400478291591699</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1.402453453255908</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1.404648662215523</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1.407125696970204</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.40959166264006</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>1.412155950218421</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1.414775737825472</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>1.417421859967567</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>1.420070437733531</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>1.422701713227279</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -857,6 +3953,135 @@
       <c r="E25" t="n">
         <v>0.4128627061375831</v>
       </c>
+      <c r="F25" t="n">
+        <v>0.3979132329239091</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.385114076764273</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3741627987113639</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.3648060807205642</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.356803999188617</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.3501371844628093</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.3444901199593787</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.3397310626329965</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.3357489674649584</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.3324677234066854</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.3298182614700173</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.327728012822604</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.3261309105379601</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.3249287625968091</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.3241886085750511</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.3237837984885322</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.3236638335454761</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.3237878175059571</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.3240659101228333</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.3246211396715108</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.3253208511747936</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.3261851800403272</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.327040526426025</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.3279624474579788</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.3289400398464916</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.3299577636411098</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.3310016728367236</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.332059725621593</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.3330699857090498</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.3341442524625905</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.3352062531740865</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.3362448667240703</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.3372552469936702</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.3381839951642039</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.3391306692633544</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.3400424063593943</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.3409614500580245</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.3417531642126881</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.3425424287631088</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.343296574618093</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.3440141498001476</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.3446964205650844</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0.3453450671199797</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -874,6 +4099,135 @@
       <c r="E26" t="n">
         <v>0.2867520918749379</v>
       </c>
+      <c r="F26" t="n">
+        <v>0.267008853006433</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.249617740364915</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.234301373675771</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2208221582900427</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.2090804634080636</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1989035058629101</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1899527914450225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1821007665913413</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1751726585396227</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1691987173511511</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1640979989307799</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.1597837806346951</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.1561757721166766</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.1531632933979088</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.1508359543192783</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1490307429336458</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.1476773044711609</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.1467177731692961</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.1460908228006905</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.1458872724304835</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.1459378246737034</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.1461919067214614</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.1465003469751719</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.1469480503791112</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.1475165513239692</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.1481821276900783</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1489232749553772</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1497210794874239</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.1505702583939319</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.1515202067714623</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.1524770394301534</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.153425003305537</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1543559586413689</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1552758652670586</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.1562204665895701</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1571265054557367</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.157977398569315</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.158752626278679</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.1595253481967054</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.1602563459232565</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.160943696788536</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.1615886777547654</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0.1621930503537056</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -891,6 +4245,135 @@
       <c r="E27" t="n">
         <v>0.1707876864834231</v>
       </c>
+      <c r="F27" t="n">
+        <v>0.1522100556825714</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.1360616152397994</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.1220113600004581</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1097809979414126</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.09918191238139323</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.09016431565601661</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0823058800612156</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.07546429714225399</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.06943284698254484</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.06425431701224173</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.05985549780039526</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.05615407296029079</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.05307474129654953</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.05043191918031195</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.04843296059999822</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.04689223520837455</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.0457442881777063</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.04493790479976051</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.04432130167915031</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.04413389439791687</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.04417222083813709</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.04447978841943413</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.04477616361017547</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.04518772856129901</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.04570258619758349</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.0463004952440098</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.04696285788086089</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.04767330893039044</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.04835543697158717</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.04916678061950587</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.04998798973601146</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.05080230253040546</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.05160229912668069</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.05233192921852832</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.05311537800395155</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.05386947313245706</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.05463070296825089</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.05525088840184067</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.0558898814111813</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.05649517046451143</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0.05706346009137814</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0.05759557246173123</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0.05809287889567397</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -908,6 +4391,135 @@
       <c r="E28" t="n">
         <v>0.9445077431807984</v>
       </c>
+      <c r="F28" t="n">
+        <v>0.9264994300040457</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9111596451705817</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.8981095456310687</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.8870338936247454</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.8777255170381648</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.8700247894558166</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.8635848075785728</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8582455566976701</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.8538104703645857</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.8502487510631956</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.8474722528195685</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8453913300304795</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.8439244410363109</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.8429065203533069</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.8424462380094779</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.8424062378498104</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.8427252061649492</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.8433521378413903</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.8441350268557792</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.8452420766459271</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.8465339764321507</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.8480764697088274</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.8496355905823159</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.8512799279840048</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.8529933001216885</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.8547555552397688</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.8565486847687058</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.8583570883326439</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.8600597460234656</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.8618234246136897</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.8635700856654335</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.8652865313868084</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.8669661735143571</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.86849164860328</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.8700265318242281</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.8715173377510701</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.8730690770512676</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.8744160913256589</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.8757497199842041</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0.8770374029264781</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0.8782776127125397</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0.879471656737805</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0.8806213676488962</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -925,6 +4537,135 @@
       <c r="E29" t="n">
         <v>2.645874682826046</v>
       </c>
+      <c r="F29" t="n">
+        <v>2.544462954643263</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.450454240099573</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.363590192170177</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.283619223170263</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.212216728414689</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.146697797246216</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.086818733597188</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.032369591607179</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1.982348455987899</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.937602437563763</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.89784419325579</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.862775605638284</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.832094485702066</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.805455911775817</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.782749828325296</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.763628405496918</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.747773624006513</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.734880262058689</v>
+      </c>
+      <c r="X29" t="n">
+        <v>1.724902900143773</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>1.71736865675693</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>1.711968754960912</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.70817557443833</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>1.705995417173118</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.705245627883003</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1.705733599659531</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1.707280660836473</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>1.709723520845598</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.712913862367886</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1.716857116429974</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>1.721282252433175</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1.726058388705613</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1.731087415014393</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1.73628548865129</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1.741575491422577</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1.746889324500749</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>1.752159331221246</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>1.757429375274042</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>1.762472586653207</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>1.767382311152052</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>1.77212783105637</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>1.776693375555884</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>1.781068863856453</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>1.78524845562885</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -942,6 +4683,135 @@
       <c r="E30" t="n">
         <v>0.8340982769672729</v>
       </c>
+      <c r="F30" t="n">
+        <v>0.8084531004492217</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7863556318660571</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7673247088571572</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.7509564980883611</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.736921393650551</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.7250853943908647</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.7149752862927455</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7063809278908441</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.699122989680994</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.6930847714231632</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.6881475874404519</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.6841892391352544</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6810980758282084</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.6787469094317414</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.6771884791870239</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.6762276046608511</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.6757782963245119</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.6757693132129046</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.6760988535069797</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.6768902195862545</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.6779448185129988</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.6792459653527385</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.6805779853749235</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.6820406238453072</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.6836117610139301</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.6852634339600213</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.686970622810498</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.6887116398034093</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.6904216470529068</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.6922255574758807</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.6940123314275416</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.6957638317098231</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.6974712476407028</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.6990784351694369</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.7007015766737511</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.7022649574533606</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.703810809045473</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.7051833903551682</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.7065415659266199</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0.7078390710599636</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.7090740558894796</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0.7102486296137117</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0.7113655676645472</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -959,6 +4829,135 @@
       <c r="E31" t="n">
         <v>-0.3065828437302434</v>
       </c>
+      <c r="F31" t="n">
+        <v>-0.3277822930327777</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3460157576621975</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.3616847889924624</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-0.3751316290770708</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-0.3867140059419419</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.3964344714069059</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.4047487502287123</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.4118385507513214</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.4178216298394187</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.4228204303715904</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.4269388055573215</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.4302853775462205</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.4329583660764761</v>
+      </c>
+      <c r="S31" t="n">
+        <v>-0.4350380515377419</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.4364771414256853</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.4374701946981726</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4380936685799324</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.4384079548456407</v>
+      </c>
+      <c r="X31" t="n">
+        <v>-0.4384589437331438</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.4381455843542888</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.4376676583763941</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.4370829954219173</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-0.4365546298960361</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>-0.4359628568667681</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.4353198784731636</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.4346451124884899</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>-0.4339557290534414</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>-0.4332662036936801</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>-0.4325713329531621</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>-0.4318022420597226</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.431070420007825</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>-0.430388659996447</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>-0.4297607170311459</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>-0.4291643537089516</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>-0.4285556721640435</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>-0.4280106436059324</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>-0.4275592267290145</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>-0.4271985297211124</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.4268446938888223</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.4265450301467798</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.4262997817322549</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.4261054581598434</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>-0.4259582636763231</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -976,6 +4975,135 @@
       <c r="E32" t="n">
         <v>0.6690088086799699</v>
       </c>
+      <c r="F32" t="n">
+        <v>0.6528198573233243</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.6387410167012585</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.6265135122481378</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.6159156548773026</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.606839888416299</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.5991333356735478</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.5924955457684991</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.5868078275258036</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.5819068468265607</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5778159499293758</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.5744598752050077</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.5717595532054927</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.5696423897802805</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.5679965071414879</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.5669096022896578</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.5662406654373556</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.565928452127042</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.5659229116154478</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.5661527914084393</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.5667143959495096</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.5674637198343757</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.5683778057555798</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.5693107801239214</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.5703361822016489</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.5714393812486209</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.5726013378538118</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.5738049601035018</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.5750353993389263</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.5762699870927475</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.5775721981947484</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.5788632710433023</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.5801311075522891</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.5813700447156858</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.5825663354770175</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.5837724882003451</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.5849356542180161</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.5860622258393675</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.587095969811041</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.5881203668641094</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>0.5891027352805004</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.590042159430741</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0.5909403788564854</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0.5917994765974509</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -993,6 +5121,135 @@
       <c r="E33" t="n">
         <v>0.850478226904962</v>
       </c>
+      <c r="F33" t="n">
+        <v>0.8370269656460635</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.8256795301051633</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.8161223642438628</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.8080944484839291</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.801369055879711</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7958928219625901</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.7913578699803411</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7876349731723473</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.7846018265212746</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.7822059069694317</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.7803789502806138</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.7790505783569411</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.7781576313890711</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.7776001420679068</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.7774550526617059</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.777600883877819</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7779903230728223</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.7785857868598806</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.7793032894147797</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.7802645612314639</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.7813435219271635</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7825580715835422</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.783746288444556</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.7849832109200957</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.7862603532097073</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.7875646185917126</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.7888843016150486</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.7902093842233615</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.7914900568364878</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.7928257794986557</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.7941445440773832</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.7954369359870862</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.7966993805773637</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.7978919354786349</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.7990990524793894</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.8002709364847482</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.8014382614305364</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.8024955534290966</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>0.8035504803052393</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>0.8045720381314929</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.805559178865236</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>0.8065133573963919</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>0.8074363369211268</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1010,6 +5267,135 @@
       <c r="E34" t="n">
         <v>-0.73639330261748</v>
       </c>
+      <c r="F34" t="n">
+        <v>-0.7537353005598193</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.7686307596501799</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.7814356554242983</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-0.7924487637422817</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-0.8020148869811118</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.8101193130762697</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.8171149798678963</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.8231523429340926</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.8282732499639587</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.8326442074471183</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.8363477935357434</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-0.8394683766468038</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-0.8420815191679556</v>
+      </c>
+      <c r="S34" t="n">
+        <v>-0.8441916379337736</v>
+      </c>
+      <c r="T34" t="n">
+        <v>-0.8458326316933206</v>
+      </c>
+      <c r="U34" t="n">
+        <v>-0.8471450007408725</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.8481842514033349</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-0.8489942513943562</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-0.8495569153306043</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.8498566649294657</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>-0.8500363175770363</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>-0.8501833880763012</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>-0.8503641376638386</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>-0.8504925876287671</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.8505775776597323</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>-0.8506330992274361</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>-0.8506715031238586</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>-0.8507031890284386</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>-0.8506844175453999</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>-0.8506074474249754</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>-0.8505525217167913</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>-0.8505288420789293</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>-0.8505390803746873</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>-0.8505266228721481</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>-0.8505018478021962</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>-0.8505196344484851</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>-0.8506415628183654</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>-0.8507845422462512</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.8509291021830163</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.8511093871986188</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.851325639963025</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.8515753903562984</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>-0.8518559366493881</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1027,6 +5413,135 @@
       <c r="E35" t="n">
         <v>0.8169855146462672</v>
       </c>
+      <c r="F35" t="n">
+        <v>0.8157550693380271</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.8149641572290061</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.8145578489603088</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.814486685408789</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.8147046066939887</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.8151640162982907</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.815831067959835</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8166760021823691</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.817677569624185</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.8188098151219807</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.8200483661643206</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.8213715243823803</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.8227601006834276</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.824204941398159</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.825683527473036</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.827181375789959</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.828686651634964</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.8301894267132695</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.8316862656523633</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.8331632425042576</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.8346140383194895</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.8360327794763522</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.8374203618205437</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.8387749586367247</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.8400948341668573</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.841378851887293</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.8426264305813017</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.8438374651306304</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.8450070639612881</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.8461390964787873</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.8472344902956244</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.848294792788489</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.8493216987666989</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.8503073873829062</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.8512620151875552</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.8521875842360733</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.8530976655983337</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0.8539720144545706</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>0.8548237326251907</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>0.8556545704354751</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>0.8564663733927196</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>0.8572608777203828</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>0.8580396984601936</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1044,6 +5559,135 @@
       <c r="E36" t="n">
         <v>0.7782600606571806</v>
       </c>
+      <c r="F36" t="n">
+        <v>0.775751013857977</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.7740571485131953</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7730594850857905</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.7726543948623656</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.7726965415763539</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.7731550540218065</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.7739646811596196</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7750674797308618</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.7764672087314164</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.7780601931104837</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.7798048173395107</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.7816646827111323</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.7836080767786345</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7856540026597075</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.7877239843392478</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.7897980537120063</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.7918593649578657</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.7938939503997227</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.7959225492884182</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.7978950487886846</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.7998054203333059</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.8016269311632829</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.8033865463629195</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.8050815789320979</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.806710618424787</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.8082732454833859</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.8097698680699641</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.8112015818510196</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.8125765070888235</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.8138860888575737</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.8151336232762125</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.8163225256963637</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.8174563335507856</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.8185384523414529</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.8195703004699911</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.8205560483666372</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.821502430140259</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0.8224084966853753</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>0.8232796873303942</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>0.824119444181319</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>0.8249309578842496</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>0.8257172005963029</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>0.8264809266554278</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1061,6 +5705,135 @@
       <c r="E37" t="n">
         <v>0.7427084595366741</v>
       </c>
+      <c r="F37" t="n">
+        <v>0.7396920969696038</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.737650203964571</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.7364287734445445</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.735896220589364</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.7358583712034736</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.7363020329869632</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.7371440363649359</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.7383140875579181</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.7398249766530726</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.7415398019996819</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.7434125099758191</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.745402969525314</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.7474764747419848</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.7496576319943992</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.7518550042379593</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.7540473259507585</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.7562175844341728</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.7583517841581963</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.7604708942682172</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.7625245071916845</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.7645058407504529</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.7663912482333983</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.7682050751875905</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.7699464509951554</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.7716144488512403</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.7732090613083732</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.7747311248311657</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.7761821779936932</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.7775657773535712</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.7788805868381122</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.7801291237105367</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.7813150532405715</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.78244225929573</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.7835094665791674</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.7845253537309747</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.7854933250946335</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0.7864246328399744</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0.7873080607589513</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0.7881560502805183</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0.7889716205716752</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0.789758046238626</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0.790518433158212</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0.7912556738378483</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1078,6 +5851,135 @@
       <c r="E38" t="n">
         <v>0.6848820629684604</v>
       </c>
+      <c r="F38" t="n">
+        <v>0.6809848994759187</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.6774263573698092</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.6742343467515018</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.6714214405507029</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.669045073108158</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.6670091592648986</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.6653061341434749</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.6639230659388192</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.6628350686800348</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.6620509161964546</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.6615442025671399</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6612886910539961</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.661258705251541</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.6614591453178569</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.6618429828869217</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6623843607416241</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.6630596341560591</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.6638473122094815</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.6647714348435161</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.665768305957678</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.6668210770533607</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.6678736884490662</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.6689597637699434</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.6700685294317874</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.6711906614585688</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.6723181011887122</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.6734439495257383</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.6745623686774123</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.675697256546768</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.676809773452797</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.6778974878488075</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.6789585357589297</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.6799916178808167</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.6810147087306347</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.6820033778446576</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>0.6829586748409875</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0.6838692134087682</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0.6847637154955409</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0.6856280576918269</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0.6864638787384514</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0.6872728024136445</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0.6880564593360069</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0.6888164771760622</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1095,6 +5997,135 @@
       <c r="E39" t="n">
         <v>0.60045804736075</v>
       </c>
+      <c r="F39" t="n">
+        <v>0.5997248375053759</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5995254522456757</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.5997539316718464</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.6003228119327667</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.6010991396750978</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.6020864992490738</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.6032367820035188</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.6045099606106058</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.6059249428875106</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.6073938542191092</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.6088937029233509</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.6104055235221193</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.6119138092418236</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.6134448314967879</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.6149417242746662</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.6163976249461132</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.6178074958106683</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.6191677855407679</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.6205024986825677</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.6217779487469205</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.6229947350555423</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.6241343093699168</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.6252229837310989</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.6262622806818333</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.6272539889739341</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.6282001953503774</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.6291032128031925</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.6299655115213114</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.6308018185526092</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.6316005669325567</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.632364664429649</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.6330970529444983</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.6338005853148317</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.6344892027358737</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>0.6351532023461546</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>0.6357951327177496</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>0.6364064528318881</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.6370122225808075</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0.6376028501988112</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.6381801786502327</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0.6387459349173059</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0.63930168734087</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0.6398488462859105</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1112,6 +6143,135 @@
       <c r="E40" t="n">
         <v>0.7812681045810755</v>
       </c>
+      <c r="F40" t="n">
+        <v>0.778761773798531</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.7770953642841359</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.7761148255219597</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.7756934892662256</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.7757485119376482</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.7761521859090508</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.7768396066107706</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7777561195615541</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.7788518754758115</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7800988361148604</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.7814607602770473</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.7829073422614263</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.7844132658112216</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.7859619591957757</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.7875310229902422</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.7891049229180674</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7906711081136562</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.7922195635645614</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.7937463594074665</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.7952379076314395</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.7966898947590224</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.7980979677358696</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.7994655038501001</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.8007910344190422</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.8020738991432389</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.8033140741748835</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.8045120529099284</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.8056687456603085</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.8067815172764403</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.8078527208871524</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.8088848028715544</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.8098802011324056</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.8108413443206569</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>0.8117631000631742</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>0.8126531059310432</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>0.8135143870742562</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>0.8143587132004984</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0.8151718459585884</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0.8159634429130913</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0.816735761984076</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.8174908423390915</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0.818230535635097</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0.8189565215336544</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1129,6 +6289,135 @@
       <c r="E41" t="n">
         <v>0.5706602911418379</v>
       </c>
+      <c r="F41" t="n">
+        <v>0.5711048481392927</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5715650242056078</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.5720681337840805</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.5726309471599861</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5732150995140142</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5738795550611443</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.5746207555545628</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.575433733778334</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.5763428409723788</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.5773042367845076</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.5783103830819168</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.5793533703147326</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.5804253162984451</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.5815366989603726</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.5826584297040721</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.5837837362885472</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.5849069030583732</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.5860228763957824</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.5871355457845655</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.588230260383378</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.5893035080202498</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.5903495145611403</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.5913718707055122</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.5923697361922498</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.59334211420742</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.5942883520397187</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.5952081395310087</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.5961014690829994</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.5969647614261632</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.5978018831658494</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.5986131595755608</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.599399503979043</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>0.6001619883154461</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>0.6008949451754187</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>0.601606696853899</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>0.6022981820935306</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>0.6029783584623335</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0.6036324752632856</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0.6042706220203956</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0.604893821499996</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0.6055032660929206</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0.6061001167301168</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.6066854792460702</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1146,6 +6435,135 @@
       <c r="E42" t="n">
         <v>0.6625015068946816</v>
       </c>
+      <c r="F42" t="n">
+        <v>0.6572587902168501</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.6527549678466694</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6489615873869241</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.6458407041716879</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.6433439379020011</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.641394896801288</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.6399520461049402</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.6389719711866426</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.6384596186184106</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.6383383782685026</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.6385595192665698</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.6390773038729739</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.6398491387177618</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.6409154007812727</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.6421600313262976</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.6435468977794809</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.6450439473859039</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.6466229440051431</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.6483429673400933</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.6500893399010226</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.6518430450869166</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.653513552901025</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.6551731304321003</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6568106538642016</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.6584170584081478</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.6599850530658896</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.6615089236751792</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.6629843531829593</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.6644595719408357</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.6658716967306696</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.6672209675306471</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0.668508233347923</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>0.6697349078542103</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>0.6709411474270526</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>0.6720832147471149</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>0.6731651096749716</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>0.6741604323899094</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0.6751375695465528</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0.6760654856422827</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0.6769481101242035</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0.6777891835658175</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0.6785922817076516</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0.6793608098945328</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1163,6 +6581,135 @@
       <c r="E43" t="n">
         <v>0.6976402263589113</v>
       </c>
+      <c r="F43" t="n">
+        <v>0.6950279432379018</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.6928065880748067</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.6909630959852778</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.6894791659781856</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.6883360538872804</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.6874908649044486</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.6869217429179201</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6866061109518876</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6865404218728848</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.6866900713830828</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.6870298664065688</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.6875359206433349</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.6881858034887566</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.6889926794415121</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.6899032038962626</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.6908980353180647</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.6919599545865752</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.6930736360159346</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.6942608303872189</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.6954700685707336</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.6966905120810208</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.6978825144597259</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.6990739232390595</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.7002584430682326</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.7014306917096845</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.7025862298225621</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.7037214753942164</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.7048336134299902</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.7059390199610923</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0.7070134741787275</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0.7080563948388758</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0.7090677191837218</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>0.7100477486855005</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>0.7110083996316217</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>0.7119359950180056</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>0.7128320806968788</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>0.713691023119845</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0.7145304693647132</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0.71534342008636</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0.7161316293487191</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0.7168968639041223</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0.7176408476290314</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0.7183652473714407</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1180,6 +6727,135 @@
       <c r="E44" t="n">
         <v>0.6941191358965362</v>
       </c>
+      <c r="F44" t="n">
+        <v>0.6937984166697442</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.6939841757309125</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6945797266331881</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.6955040417074003</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6966154119230688</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.6979400189458375</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.6994288059691987</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7010413931444605</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.7027974528440981</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.704603457519121</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.7064362655458122</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.7082764351961093</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.7101078410134829</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.711948507787875</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.7137475778177345</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.7154974527534219</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.7171928156598769</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.7188298703172382</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.7204197998438976</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.7219419692783889</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.7233963115132098</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.7247780343133471</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.7260987977412856</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.7273608928028955</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.7285663008897456</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.7297173005290304</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.730816435445091</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0.7318664430057369</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>0.7328676549738375</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0.7338249133322938</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>0.7347408908144885</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>0.7356187795546161</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>0.7364617417316455</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>0.7372687195757255</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>0.7380471866544767</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>0.7387995134161361</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>0.7395322519646035</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>0.7402395755726155</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>0.7409287677786123</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>0.7416016505418646</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>0.742260153877054</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>0.7429060655365345</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>0.7435410112531184</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1197,6 +6873,135 @@
       <c r="E45" t="n">
         <v>0.6925845916785653</v>
       </c>
+      <c r="F45" t="n">
+        <v>0.6908218227664049</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.6900712907740697</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.6901585424685889</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.6909341967569214</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.6921270160717395</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.6937770072973019</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.6957936065665667</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.698097738243605</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.7007394868721423</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.7035254215387567</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.706404781216569</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.709334418388041</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.7122778945642279</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.7152915490428998</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.7182453824417722</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.7211210384519648</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.723903795007264</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.7265824228318497</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.7292060006528768</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.7316969773587619</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.7340548061809524</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.736238854757604</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>0.7383042300003899</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>0.7402520999184177</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>0.7420852227111461</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>0.7438073228140317</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>0.7454228608943261</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>0.7469368569532593</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0.7483749509109917</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0.7497171217080734</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>0.7509705383674979</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>0.7521420374960303</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>0.753238318751039</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>0.7542809040213383</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0.75525813260184</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>0.7561767882835483</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0.7570297064001698</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>0.7578509548204885</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>0.7586308406025103</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.7593744617598139</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>0.7600863807199008</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>0.7607707624483063</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>0.7614313923618737</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1214,6 +7019,135 @@
       <c r="E46" t="n">
         <v>-1.304525706852365</v>
       </c>
+      <c r="F46" t="n">
+        <v>-1.308383735427001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.312028529570242</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-1.315459753002405</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-1.318683572875514</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-1.321911634910878</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-1.324966068488678</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-1.327856809464707</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-1.330595331884249</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-1.332941782815273</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-1.33516574141493</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-1.337282164332333</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-1.339304871361424</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-1.341246461621207</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-1.34283515121264</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-1.344380117765305</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-1.345890609821137</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-1.347374332246803</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-1.348837630355445</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-1.349997892530691</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-1.351167551284293</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-1.352348686203416</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-1.353815963548717</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-1.355276606393907</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-1.356731733795418</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-1.358182001665684</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-1.359627658685228</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-1.361068618601246</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-1.362504526789739</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-1.36368615552113</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-1.364878172928288</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-1.366078393777833</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-1.36728465480723</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-1.368494856569342</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-1.369455837951414</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-1.370433084034579</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-1.371423457648832</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-1.372667911011914</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-1.373662842951067</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-1.374663845455074</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-1.375668718861959</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-1.376675495273576</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-1.377682429390258</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>-1.378687984664813</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1231,6 +7165,135 @@
       <c r="E47" t="n">
         <v>-1.015907232319357</v>
       </c>
+      <c r="F47" t="n">
+        <v>-1.019002966526255</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1.021938540310812</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1.024706474860316</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-1.02730670225266</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-1.029913091234691</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-1.032375568343968</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-1.034699197365394</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.036892461377536</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1.038753216672038</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-1.040507376319486</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.042167840531153</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-1.043746579344157</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-1.045254613838821</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-1.04646338665193</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-1.047634449293702</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-1.048775503136449</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-1.049893539033681</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-1.050994393262942</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-1.051840229915355</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-1.052695836052445</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-1.053562409929272</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-1.054671621691549</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-1.055776000795474</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-1.056877537281106</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-1.057976987785743</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-1.059074668561412</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-1.060170577718551</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-1.061264458988282</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-1.0621468462817</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-1.063041014153821</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-1.063944442176902</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-1.064855194980457</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-1.06577142713739</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-1.066480724670564</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-1.067206297632002</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-1.067944907100213</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-1.068898229128788</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-1.069643816576187</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-1.070396458184215</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-1.071153881335667</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-1.071914295652851</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-1.072676127059772</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>-1.073437985404585</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1248,6 +7311,135 @@
       <c r="E48" t="n">
         <v>-0.8869228651293741</v>
       </c>
+      <c r="F48" t="n">
+        <v>-0.8893216317215109</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.8915547490632558</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.8936191537812831</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.895519309741668</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.8974612683032005</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.8992683229998568</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.9009488533102843</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.9025146612075191</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.9037478541511941</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.9048978811220822</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.9059797888996628</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.9070071179040153</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.9079919612850915</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.9086936893207298</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.9093888847412894</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.9100849032091481</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.9107881833522943</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.9115037291682476</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.911983322291433</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.912501583076165</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.9130579224050691</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.9138902129051389</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.9147399411580263</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.9156077724622323</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.9164929348854428</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.9173942131715425</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.9183101012338297</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.9192388802058661</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.9199629427590342</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.9207118378177011</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.9214814287486091</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.9222684125211016</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.9230696915414678</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.9236644082373258</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.9242827247118247</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.9249201724154764</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.9257848923283634</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.9264379683450144</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.9271017546055603</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.9277732073432305</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.9284499258279136</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.9291298133834399</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>-0.9298110310227088</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1265,6 +7457,135 @@
       <c r="E49" t="n">
         <v>-0.6524981077355926</v>
       </c>
+      <c r="F49" t="n">
+        <v>-0.6540887416512918</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.6555856034881629</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.6569820727707613</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.6582780801850314</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.659638657367223</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.6609150829118805</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.6621122118886182</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.663237139748905</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.6641113367508859</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.664934262651844</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.6657161816700687</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.6664663114838709</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.667192821306526</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.6676997363155275</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.668208494698729</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.6687242510309249</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.6692511526986644</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.6697922455206168</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.6701452243863432</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.6705312549517867</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.6709496679667757</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.6715934822087873</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.6722524910266896</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.6729262865540584</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.6736137919713819</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.6743136709848973</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.67502441485259</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.6757443974361181</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.6762950339054837</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.6768639599350466</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.6774480322282332</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.6780445250585521</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.678650892152602</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.6790852928635578</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.6795370294041339</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.6800027223044582</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.6806541993986691</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.6811295351163301</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.6816120566931869</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.6820995213402384</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.6825900732048127</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.6830820988841851</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>-0.6835741969437122</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1282,6 +7603,135 @@
       <c r="E50" t="n">
         <v>-0.06404838996907636</v>
       </c>
+      <c r="F50" t="n">
+        <v>-0.06607003869608116</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.06787714026612754</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.06949239047493419</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.07093634010423941</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.07229213668662199</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.07352329073271455</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.07464096162435259</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.07565594229235557</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.07648152425036357</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.07722226188589106</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.07788863760255273</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.07848993673967129</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.0790343910902203</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.07941209465914992</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.07975209080723861</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.08006038883367916</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.08034223551369726</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.08060207548600534</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.080720880749388</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.08083322196214163</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.08094111677231726</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.08116392777018447</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.0813766587532694</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.08158100087085096</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.08177812698998663</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.08196894147327613</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.0821541348332389</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.0823342190321565</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.08240194534901887</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.08247288230636368</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.08254635289550685</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.08262182221834789</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.08269875918444061</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.08266830615373684</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.08264580917889708</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.08262995441697486</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.08272450377332188</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.08271267644481189</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.08270506747185219</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.08270073976433237</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.08269892706509607</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.08269895301103412</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>-0.08270021902830227</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1299,6 +7749,135 @@
       <c r="E51" t="n">
         <v>-0.8753134818649873</v>
       </c>
+      <c r="F51" t="n">
+        <v>-0.8767843304115541</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.8780746723307915</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-0.8792000974767975</v>
+      </c>
+      <c r="I51" t="n">
+        <v>-0.8801791351796442</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-0.8812400206780746</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.8821922212508705</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.8830512046431487</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.8838336391510302</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.8843327575884069</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-0.8847979689660536</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-0.8852436890908912</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-0.8856823045781546</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-0.886124338490853</v>
+      </c>
+      <c r="S51" t="n">
+        <v>-0.8863510733746842</v>
+      </c>
+      <c r="T51" t="n">
+        <v>-0.886615218694073</v>
+      </c>
+      <c r="U51" t="n">
+        <v>-0.8869209405293006</v>
+      </c>
+      <c r="V51" t="n">
+        <v>-0.8872715498511221</v>
+      </c>
+      <c r="W51" t="n">
+        <v>-0.8876690522491666</v>
+      </c>
+      <c r="X51" t="n">
+        <v>-0.8878939174133079</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>-0.8881856933487999</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8885409073024944</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.8891627007030638</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>-0.8898237156747129</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.8905223867165194</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>-0.8912559492856618</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>-0.8920213411111779</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>-0.8928153462525394</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>-0.8936346700443258</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>-0.8942905272275553</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>-0.8949785357644743</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>-0.8956936123189415</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>-0.8964315285010168</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>-0.8971883497534361</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>-0.8977720456192766</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>-0.8983800412614077</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>-0.8990076380362264</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>-0.8998348372824841</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>-0.9004800832149726</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>-0.9011355536368727</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>-0.9017981267507608</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>-0.9024653076717551</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>-0.9031349244450213</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>-0.9038050845100686</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1316,6 +7895,135 @@
       <c r="E52" t="n">
         <v>-0.8753134818649873</v>
       </c>
+      <c r="F52" t="n">
+        <v>-0.8767843304115541</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.8780746723307915</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-0.8792000974767975</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-0.8801791351796442</v>
+      </c>
+      <c r="J52" t="n">
+        <v>-0.8812400206780746</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.8821922212508705</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.8830512046431487</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.8838336391510302</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.8843327575884069</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-0.8847979689660536</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-0.8852436890908912</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-0.8856823045781546</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-0.886124338490853</v>
+      </c>
+      <c r="S52" t="n">
+        <v>-0.8863510733746842</v>
+      </c>
+      <c r="T52" t="n">
+        <v>-0.886615218694073</v>
+      </c>
+      <c r="U52" t="n">
+        <v>-0.8869209405293006</v>
+      </c>
+      <c r="V52" t="n">
+        <v>-0.8872715498511221</v>
+      </c>
+      <c r="W52" t="n">
+        <v>-0.8876690522491666</v>
+      </c>
+      <c r="X52" t="n">
+        <v>-0.8878939174133079</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>-0.8881856933487999</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>-0.8885409073024944</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>-0.8891627007030638</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>-0.8898237156747129</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>-0.8905223867165194</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>-0.8912559492856618</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>-0.8920213411111779</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>-0.8928153462525394</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>-0.8936346700443258</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>-0.8942905272275553</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>-0.8949785357644743</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>-0.8956936123189415</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>-0.8964315285010168</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>-0.8971883497534361</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>-0.8977720456192766</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>-0.8983800412614077</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>-0.8990076380362264</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>-0.8998348372824841</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>-0.9004800832149726</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>-0.9011355536368727</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>-0.9017981267507608</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>-0.9024653076717551</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>-0.9031349244450213</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>-0.9038050845100686</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1333,6 +8041,135 @@
       <c r="E53" t="n">
         <v>-1.139701288367823</v>
       </c>
+      <c r="F53" t="n">
+        <v>-1.144034444255252</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.148113797724598</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-1.151926218582079</v>
+      </c>
+      <c r="I53" t="n">
+        <v>-1.155470359312148</v>
+      </c>
+      <c r="J53" t="n">
+        <v>-1.158970247633111</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-1.162235016478743</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-1.165273602356667</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-1.168100156175597</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.170458279562541</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-1.172642495802427</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-1.174673206113056</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>-1.176569624880899</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-1.178349684547056</v>
+      </c>
+      <c r="S53" t="n">
+        <v>-1.17972411610176</v>
+      </c>
+      <c r="T53" t="n">
+        <v>-1.181032332674197</v>
+      </c>
+      <c r="U53" t="n">
+        <v>-1.182287289680858</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-1.183500958801369</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-1.184683603539502</v>
+      </c>
+      <c r="X53" t="n">
+        <v>-1.185534917374053</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>-1.186395270684773</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>-1.187267987156678</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>-1.188448425897657</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>-1.189623645870143</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>-1.190797684644922</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>-1.19197262378659</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>-1.193149780457508</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>-1.19432989236977</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>-1.195513216261391</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>-1.19643773893148</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>-1.197384053910866</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>-1.198349019945059</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>-1.199330256165715</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>-1.200325411876838</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>-1.201070056113561</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>-1.20184204274815</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>-1.20263698238754</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>-1.203704707396817</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>-1.204520946103169</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>-1.205351715987192</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>-1.206193761222731</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>-1.207044484812727</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>-1.207901561698431</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>-1.208762899884084</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1350,6 +8187,135 @@
       <c r="E54" t="n">
         <v>-0.188431747111336</v>
       </c>
+      <c r="F54" t="n">
+        <v>-0.1889317464481699</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-0.1893874089259314</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-0.1897987204364076</v>
+      </c>
+      <c r="I54" t="n">
+        <v>-0.1901683891983816</v>
+      </c>
+      <c r="J54" t="n">
+        <v>-0.1906216237529331</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.1910433432569236</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.1914365867519537</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.191805825154076</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.1920214227188553</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-0.1922278774039312</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-0.1924302582893573</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-0.1926328405122316</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-0.192839180840621</v>
+      </c>
+      <c r="S54" t="n">
+        <v>-0.1929103097658588</v>
+      </c>
+      <c r="T54" t="n">
+        <v>-0.1930001930168055</v>
+      </c>
+      <c r="U54" t="n">
+        <v>-0.1931098208887047</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-0.1932399280374961</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-0.1933907011731227</v>
+      </c>
+      <c r="X54" t="n">
+        <v>-0.1934208437508374</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>-0.1934818765112077</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>-0.1935714246367328</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>-0.1938211087845927</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>-0.1940847107593162</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>-0.1943613019994731</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>-0.1946493272704591</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>-0.1949471408165998</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>-0.1952530786902225</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>-0.1955654901079028</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>-0.1957601311060851</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>-0.1959665088896471</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>-0.1961820060446605</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>-0.1964045502045267</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>-0.1966322581828051</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>-0.196737964858257</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>-0.1968536695511369</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>-0.1969769734973059</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>-0.1972286897609907</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>-0.1973548453898272</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>-0.1974842962696464</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>-0.197615532396111</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>-0.1977474079998711</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>-0.1978789517077503</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>-0.1980093382256047</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1367,6 +8333,135 @@
       <c r="E55" t="n">
         <v>-1.028099194463002</v>
       </c>
+      <c r="F55" t="n">
+        <v>-1.032505600406519</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.036632332259864</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.040482186511344</v>
+      </c>
+      <c r="I55" t="n">
+        <v>-1.044064171017036</v>
+      </c>
+      <c r="J55" t="n">
+        <v>-1.047524174553842</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.05077209918143</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-1.053815430032919</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-1.056665904918058</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-1.059136249052023</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-1.061434154417848</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-1.063578721524714</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>-1.065587455891834</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1.067476404072183</v>
+      </c>
+      <c r="S55" t="n">
+        <v>-1.069012621037891</v>
+      </c>
+      <c r="T55" t="n">
+        <v>-1.070466801088509</v>
+      </c>
+      <c r="U55" t="n">
+        <v>-1.071851889801641</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-1.073179691401411</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-1.074460280099973</v>
+      </c>
+      <c r="X55" t="n">
+        <v>-1.075440020085329</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>-1.076406797785803</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>-1.077364963368754</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>-1.078570505235006</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>-1.079755732558749</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>-1.080925140541255</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>-1.082081391380897</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>-1.083226475812868</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>-1.084361880132753</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>-1.085488667782361</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>-1.08637752478139</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>-1.087276471626774</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>-1.088183256021076</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>-1.089096429433845</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>-1.090014595399985</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>-1.090705890040659</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>-1.09141655740172</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>-1.092142902624879</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>-1.093104511133089</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>-1.093840539811329</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>-1.094586397359636</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>-1.095339464650358</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>-1.096097770086505</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>-1.096859588865136</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>-1.097623392479397</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1384,6 +8479,135 @@
       <c r="E56" t="n">
         <v>-0.91332683401585</v>
       </c>
+      <c r="F56" t="n">
+        <v>-0.9161917905692658</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.9187646892542937</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-0.9210941652156222</v>
+      </c>
+      <c r="I56" t="n">
+        <v>-0.9232211436970433</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-0.9253024237496027</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.9272543098840591</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.9290976566230835</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.9308490158962366</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.9323601992397897</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-0.9338067569504038</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-0.9352009328268315</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-0.9365528524140933</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-0.9378707616609302</v>
+      </c>
+      <c r="S56" t="n">
+        <v>-0.9389746548326718</v>
+      </c>
+      <c r="T56" t="n">
+        <v>-0.9400655489096156</v>
+      </c>
+      <c r="U56" t="n">
+        <v>-0.9411486631638446</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-0.9422272919392077</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-0.9433036559032565</v>
+      </c>
+      <c r="X56" t="n">
+        <v>-0.944186347761466</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>-0.9450813479886054</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>-0.945989049365648</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>-0.9470934486222693</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>-0.9481961479905181</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>-0.9492956305633069</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>-0.9503910278733736</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>-0.9514814154186946</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>-0.9525658004618709</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>-0.9536431565040903</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>-0.9545407641202145</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>-0.9554401036729353</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>-0.9563398402030054</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>-0.9572382172546803</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>-0.9581335975142844</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>-0.958849061680583</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>-0.9595696757633055</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>-0.9602937115178872</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>-0.9611904961779246</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>-0.9619065584849597</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>-0.9626214292352246</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>-0.9633341020603781</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>-0.9640434887658417</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>-0.9647486579710868</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>-0.965448836026967</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1401,6 +8625,135 @@
       <c r="E57" t="n">
         <v>-0.970625401261129</v>
       </c>
+      <c r="F57" t="n">
+        <v>-0.9711596215801838</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.9720807823165424</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-0.9733224851567601</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.9748286452148737</v>
+      </c>
+      <c r="J57" t="n">
+        <v>-0.9766623143184899</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-0.9786741493284969</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-0.980827587783576</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-0.9830920392422623</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.9852930803211637</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-0.9875592756365451</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-0.9898707815646519</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-0.9922102389314063</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-0.9945625514755521</v>
+      </c>
+      <c r="S57" t="n">
+        <v>-0.9967398101913969</v>
+      </c>
+      <c r="T57" t="n">
+        <v>-0.9989132294715871</v>
+      </c>
+      <c r="U57" t="n">
+        <v>-1.001072357007557</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-1.003208701999507</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-1.005315117802334</v>
+      </c>
+      <c r="X57" t="n">
+        <v>-1.007198139022888</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>-1.009050130190808</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>-1.010866008264024</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>-1.012826471448416</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>-1.014735003481258</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>-1.016590670692653</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>-1.018392491674225</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>-1.020139955823672</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>-1.021833002397628</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>-1.023471962503644</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>-1.024879048549152</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>-1.026243006591188</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>-1.027564159087207</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>-1.02884350214334</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>-1.030082239015331</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>-1.03109549143876</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>-1.032081134902763</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>-1.033039864975745</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>-1.034156082457789</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>-1.0350549635998</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>-1.035931121586421</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>-1.036785510718861</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>-1.037619307331179</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>-1.038433690422825</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>-1.039229815925763</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1418,6 +8771,135 @@
       <c r="E58" t="n">
         <v>-1.138431500046128</v>
       </c>
+      <c r="F58" t="n">
+        <v>-1.136331115606533</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.134589551624376</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.133220297459049</v>
+      </c>
+      <c r="I58" t="n">
+        <v>-1.132224502151836</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1.131750464672307</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.131603050932749</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.131766474594457</v>
+      </c>
+      <c r="M58" t="n">
+        <v>-1.132221017955646</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-1.132794526430291</v>
+      </c>
+      <c r="O58" t="n">
+        <v>-1.133634131320948</v>
+      </c>
+      <c r="P58" t="n">
+        <v>-1.13471127828222</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>-1.135998059670277</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-1.137467524229641</v>
+      </c>
+      <c r="S58" t="n">
+        <v>-1.138953925651426</v>
+      </c>
+      <c r="T58" t="n">
+        <v>-1.140586589483428</v>
+      </c>
+      <c r="U58" t="n">
+        <v>-1.142339606107967</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-1.144189266549701</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-1.146114102331608</v>
+      </c>
+      <c r="X58" t="n">
+        <v>-1.14795825121545</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>-1.149848667030658</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>-1.151768520240432</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>-1.153836541595955</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>-1.155901193390772</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>-1.157952202886278</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-1.159980937977104</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>-1.16198010454058</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>-1.163943624626529</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>-1.165866530222601</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>-1.167608611474691</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>-1.169306696435548</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>-1.1709588019813</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>-1.172563491824596</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>-1.174119940228342</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>-1.175477139946446</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>-1.176790851177397</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>-1.178062091657703</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>-1.179445091481168</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>-1.18062853248175</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>-1.181773304151262</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>-1.18288120092316</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>-1.183954007546445</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>-1.184993547871687</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>-1.186001671022881</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1435,6 +8917,135 @@
       <c r="E59" t="n">
         <v>-0.8350279856878825</v>
       </c>
+      <c r="F59" t="n">
+        <v>-0.8334420697394349</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-0.8319976045743704</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-0.8307173850615093</v>
+      </c>
+      <c r="I59" t="n">
+        <v>-0.8296165499654116</v>
+      </c>
+      <c r="J59" t="n">
+        <v>-0.8288921281038294</v>
+      </c>
+      <c r="K59" t="n">
+        <v>-0.828342176086974</v>
+      </c>
+      <c r="L59" t="n">
+        <v>-0.827966359097873</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.8277624278059329</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.8275464484913462</v>
+      </c>
+      <c r="O59" t="n">
+        <v>-0.8275098011859576</v>
+      </c>
+      <c r="P59" t="n">
+        <v>-0.8276423102437146</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>-0.827932734359285</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-0.8283691648799867</v>
+      </c>
+      <c r="S59" t="n">
+        <v>-0.8287708280369258</v>
+      </c>
+      <c r="T59" t="n">
+        <v>-0.8293101145529387</v>
+      </c>
+      <c r="U59" t="n">
+        <v>-0.8299718150026246</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-0.8307417387550824</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-0.8316063380663613</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-0.8323920432070122</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>-0.8332602774218079</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>-0.8341972500004038</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>-0.8353439924869127</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>-0.836526018900024</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>-0.8377352517609639</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>-0.8389637669985719</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>-0.8402043519248036</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>-0.8414505283444486</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>-0.842696528338341</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>-0.8437899608956539</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>-0.8448812396671483</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>-0.845965512485142</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>-0.8470390012895429</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>-0.8480985463756929</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>-0.8489838054930182</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>-0.8498581342494493</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>-0.8507191500956758</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>-0.8517232156538141</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>-0.852545032809409</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>-0.8533503177677951</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>-0.8541382417559856</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>-0.8549084385261514</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>-0.8556607745266851</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>-0.8563953038454845</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1452,6 +9063,135 @@
       <c r="E60" t="n">
         <v>-0.4757744985189465</v>
       </c>
+      <c r="F60" t="n">
+        <v>-0.471997718938431</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.4687304291660369</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-0.4659406590730157</v>
+      </c>
+      <c r="I60" t="n">
+        <v>-0.4635962431831571</v>
+      </c>
+      <c r="J60" t="n">
+        <v>-0.4617751705296764</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-0.460317155897979</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-0.4591924433449498</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.4583733236861218</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.457743050944141</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-0.4573783739839589</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-0.4572518887085553</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-0.4573373416528236</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-0.4576098305946241</v>
+      </c>
+      <c r="S60" t="n">
+        <v>-0.4579679110734037</v>
+      </c>
+      <c r="T60" t="n">
+        <v>-0.4584754277979675</v>
+      </c>
+      <c r="U60" t="n">
+        <v>-0.459109628330989</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-0.4598501646199736</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-0.4606784569778261</v>
+      </c>
+      <c r="X60" t="n">
+        <v>-0.4615009324118906</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>-0.4623834719793225</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>-0.4633105965692176</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>-0.4643461446548449</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>-0.4653987501642206</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>-0.4664598872015218</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>-0.4675214186066736</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>-0.4685762671178829</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>-0.4696183881652294</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>-0.4706426890851991</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>-0.4715618331122794</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>-0.4724582348075507</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>-0.4733284563422095</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>-0.4741703358501453</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>-0.4749823612259748</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>-0.4756688138266083</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>-0.4763276113858551</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>-0.4769581126805229</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>-0.4776578164524065</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>-0.4782274572044126</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-0.4787707178229036</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>-0.4792881582988753</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>-0.4797807719357444</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>-0.4802496846906508</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>-0.4806961021279775</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1469,6 +9209,135 @@
       <c r="E61" t="n">
         <v>0.3796188551999362</v>
       </c>
+      <c r="F61" t="n">
+        <v>0.3798578483042893</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.3801269337097591</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.3804155217849062</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.3807155153076766</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.3809932154271862</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.3812698349692091</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.3815438625631455</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.3818136140872128</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.3821118626017684</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0.3824029345090117</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.3826862781216939</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.382961816881793</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.3832297877038065</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.3835283985727856</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.3838178247386949</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.3840993376114957</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.3843738876819711</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.3846424460611501</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.3849450339418419</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.3852404007993613</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.3855303002891184</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.3857780108799197</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.3860254111078302</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>0.3862726833517245</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>0.386520465527032</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>0.3867693692696094</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>0.3870199411995797</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>0.3872726603184058</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>0.3875643108341835</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>0.3878563206379568</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>0.3881495576289893</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>0.388444437805943</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>0.3887412757401825</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>0.3890784050479003</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>0.3894153816464488</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>0.3897528170895794</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>0.3900533597566448</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>0.3903947553365158</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>0.390736829933069</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>0.3910798789656226</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>0.3914239765080542</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>0.391769148360246</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>0.3921153906496269</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1486,6 +9355,135 @@
       <c r="E62" t="n">
         <v>-1.214598342350113</v>
       </c>
+      <c r="F62" t="n">
+        <v>-1.217164967792377</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.220060059244707</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.223208590508484</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-1.226548099976756</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1.230042694356683</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-1.233676197127274</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-1.237397256677959</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-1.241168182629425</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-1.244847249432535</v>
+      </c>
+      <c r="O62" t="n">
+        <v>-1.248497097509998</v>
+      </c>
+      <c r="P62" t="n">
+        <v>-1.252103295927764</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>-1.255653142925728</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-1.259135933989784</v>
+      </c>
+      <c r="S62" t="n">
+        <v>-1.262354189754811</v>
+      </c>
+      <c r="T62" t="n">
+        <v>-1.26548704427195</v>
+      </c>
+      <c r="U62" t="n">
+        <v>-1.268530041459294</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-1.271481702603309</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-1.274341148012301</v>
+      </c>
+      <c r="X62" t="n">
+        <v>-1.276877792978562</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>-1.279332810559088</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>-1.281704258667774</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>-1.284227059125247</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>-1.286655784509893</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>-1.288996028977766</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>-1.291250319840714</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>-1.293421208454336</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>-1.295511461593603</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>-1.297524029076095</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>-1.29923160809908</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>-1.300884665470835</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>-1.302482644765244</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>-1.30402765191421</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>-1.305522116174921</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>-1.306731636504965</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>-1.307913850953773</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>-1.309067588748333</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>-1.310424081523594</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>-1.31150849527102</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>-1.312570967821881</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>-1.313611333725571</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>-1.314630707016709</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>-1.315630330907531</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>-1.316611452988645</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1503,6 +9501,135 @@
       <c r="E63" t="n">
         <v>-0.657000668703542</v>
       </c>
+      <c r="F63" t="n">
+        <v>-0.6483828473479276</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-0.6404902621820953</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-0.6333047518230241</v>
+      </c>
+      <c r="I63" t="n">
+        <v>-0.6268045812466102</v>
+      </c>
+      <c r="J63" t="n">
+        <v>-0.6212333316401201</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-0.6162372110207591</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-0.6117912046367555</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.6078722500552175</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.6042833045883992</v>
+      </c>
+      <c r="O63" t="n">
+        <v>-0.6012112414178397</v>
+      </c>
+      <c r="P63" t="n">
+        <v>-0.5986208757608459</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>-0.5964768479218605</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-0.5947442066938964</v>
+      </c>
+      <c r="S63" t="n">
+        <v>-0.5932873858169627</v>
+      </c>
+      <c r="T63" t="n">
+        <v>-0.5921989359008072</v>
+      </c>
+      <c r="U63" t="n">
+        <v>-0.5914390655840948</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-0.590972225489293</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-0.5907651860672353</v>
+      </c>
+      <c r="X63" t="n">
+        <v>-0.5907175554067254</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>-0.5908814408005389</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>-0.5912242705754368</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>-0.5917811060175534</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>-0.5924587013142208</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>-0.5932393398768027</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>-0.5941046034926537</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>-0.5950376624888152</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>-0.596023378507342</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>-0.5970482304974504</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>-0.598032708526907</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>-0.5990353877024717</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>-0.6000450401515904</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>-0.601053566148665</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>-0.6020542027808526</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>-0.6029563954499482</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>-0.6038419219036024</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>-0.6047059892046553</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>-0.6056379538887793</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>-0.6064473252664926</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>-0.6072301468915582</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>-0.6079846989865416</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>-0.6087105636601058</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>-0.6094077530688706</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>-0.6100765927758134</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1520,6 +9647,135 @@
       <c r="E64" t="n">
         <v>-0.9037761506343586</v>
       </c>
+      <c r="F64" t="n">
+        <v>-0.9005839034212442</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.8981395605125237</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-0.8963233118650221</v>
+      </c>
+      <c r="I64" t="n">
+        <v>-0.8950379762811224</v>
+      </c>
+      <c r="J64" t="n">
+        <v>-0.8944022058770325</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-0.8941353637061547</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-0.8941816652775014</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-0.8944975562958631</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.8948550868834174</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-0.8954288694486008</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-0.8961899309554641</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-0.897112424589093</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-0.8981733621475447</v>
+      </c>
+      <c r="S64" t="n">
+        <v>-0.8991625423674582</v>
+      </c>
+      <c r="T64" t="n">
+        <v>-0.9002660512156605</v>
+      </c>
+      <c r="U64" t="n">
+        <v>-0.9014641800261369</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-0.9027407270534455</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-0.9040811592339641</v>
+      </c>
+      <c r="X64" t="n">
+        <v>-0.9052830962099577</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>-0.9065378468593213</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>-0.9078312370599996</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>-0.9093356573881725</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>-0.9108466382984084</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>-0.9123592539784056</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>-0.913867202606103</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>-0.915364847018824</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>-0.9168473128462152</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>-0.9183104379037723</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>-0.9195738760470626</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>-0.9208218098078288</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>-0.9220495695937014</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>-0.9232546862950002</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>-0.9244353176597976</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>-0.9254027814211739</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>-0.9263539495045783</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>-0.9272863493768327</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>-0.9283852509817938</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>-0.9292676332799659</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>-0.9301310703163661</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>-0.9309746507268859</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>-0.9317984530875077</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>-0.9326027782923684</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>-0.9333880619970237</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1537,6 +9793,135 @@
       <c r="E65" t="n">
         <v>-0.08772328253683341</v>
       </c>
+      <c r="F65" t="n">
+        <v>-0.08318436172385436</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-0.07918012257633933</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-0.07567034196022353</v>
+      </c>
+      <c r="I65" t="n">
+        <v>-0.0726172422974167</v>
+      </c>
+      <c r="J65" t="n">
+        <v>-0.07009758240846789</v>
+      </c>
+      <c r="K65" t="n">
+        <v>-0.06794201853353812</v>
+      </c>
+      <c r="L65" t="n">
+        <v>-0.06612052395415802</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-0.06460599166408117</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.06329265577564835</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-0.06225072463980598</v>
+      </c>
+      <c r="P65" t="n">
+        <v>-0.0614535093597048</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>-0.0608755998557362</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-0.06049299972083438</v>
+      </c>
+      <c r="S65" t="n">
+        <v>-0.06022411803207353</v>
+      </c>
+      <c r="T65" t="n">
+        <v>-0.06011534478022147</v>
+      </c>
+      <c r="U65" t="n">
+        <v>-0.06014425057082362</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-0.06029093416002927</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-0.06053721737856296</v>
+      </c>
+      <c r="X65" t="n">
+        <v>-0.06081346943853809</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>-0.06116173164349893</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>-0.06156638459194413</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>-0.06206711132666629</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>-0.06259745238119624</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>-0.06314897639082072</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>-0.06371338668952206</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>-0.06428337326852787</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>-0.06485260662731382</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>-0.06541566557901883</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>-0.06590919634519865</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>-0.06638963312705268</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>-0.06685306802380837</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>-0.06729697313714189</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>-0.06771945991748368</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>-0.06804979195716603</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>-0.06835859425783491</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>-0.06864486285649181</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>-0.06898098326029609</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>-0.06921846310598208</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>-0.06943440703896055</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>-0.06962903882870165</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>-0.06980308108134314</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>-0.06995739943403437</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>-0.07009294809912847</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1554,6 +9939,135 @@
       <c r="E66" t="n">
         <v>-0.7971148491337251</v>
       </c>
+      <c r="F66" t="n">
+        <v>-0.7979709812219369</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-0.7989532805662177</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-0.8000822416401268</v>
+      </c>
+      <c r="I66" t="n">
+        <v>-0.8013663366366397</v>
+      </c>
+      <c r="J66" t="n">
+        <v>-0.8028027551165601</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-0.8044095835221508</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-0.8061688198274307</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-0.8080622986361079</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-0.8100185326229586</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-0.8120598521249114</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-0.8141707324168317</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-0.8163354168808008</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-0.8185385079680343</v>
+      </c>
+      <c r="S66" t="n">
+        <v>-0.8206683502096112</v>
+      </c>
+      <c r="T66" t="n">
+        <v>-0.8228053044390764</v>
+      </c>
+      <c r="U66" t="n">
+        <v>-0.8249377814602374</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-0.8270555661809605</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-0.8291494141082661</v>
+      </c>
+      <c r="X66" t="n">
+        <v>-0.8310868472144244</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>-0.8329879823940377</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>-0.8348463800025925</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>-0.8367871767433719</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>-0.8386718913858192</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>-0.8404983767482197</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>-0.8422645244201749</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>-0.8439689192242376</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>-0.8456108195205908</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>-0.8471900850759897</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>-0.8485700081968541</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>-0.8498960006031236</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>-0.8511681665987338</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>-0.8523876268372862</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>-0.8535558995221755</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>-0.8545280601016907</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>-0.855462088205835</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>-0.8563588316022469</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>-0.8573651983753923</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>-0.8581831890850765</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>-0.8589703886306278</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>-0.8597282809261886</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>-0.8604586921176097</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>-0.8611634871888235</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>-0.8618445141239099</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1570,6 +10084,135 @@
       </c>
       <c r="E67" t="n">
         <v>-0.7908101493488113</v>
+      </c>
+      <c r="F67" t="n">
+        <v>-0.7906175912456168</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-0.7904359309103325</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-0.790354486488685</v>
+      </c>
+      <c r="I67" t="n">
+        <v>-0.7904321776259976</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-0.7907564661268007</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.7912885307347158</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.7920368308107328</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.7929969803210762</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.794083790530404</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-0.7953625558434024</v>
+      </c>
+      <c r="P67" t="n">
+        <v>-0.7968132827308108</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>-0.7984148441385124</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-0.8001455941770554</v>
+      </c>
+      <c r="S67" t="n">
+        <v>-0.8018976659297929</v>
+      </c>
+      <c r="T67" t="n">
+        <v>-0.803739366740615</v>
+      </c>
+      <c r="U67" t="n">
+        <v>-0.805651157641569</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-0.8076133804562338</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-0.8096080171472234</v>
+      </c>
+      <c r="X67" t="n">
+        <v>-0.8115220426359492</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>-0.8134381287892236</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>-0.8153453352396837</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>-0.8173324512247986</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>-0.819289791264648</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>-0.8212072538957723</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>-0.8230783283279204</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>-0.8248979089935278</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>-0.8266620278843935</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>-0.828367736418459</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>-0.8299027409006841</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>-0.8313771410054283</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>-0.8327922421814621</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>-0.8341483691978282</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>-0.8354462641807794</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>-0.8365628660331788</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>-0.8376272520905558</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>-0.8386426634515841</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>-0.8397380055118865</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>-0.8406571319894725</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>-0.8415335339077998</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>-0.8423705433435098</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>-0.8431707224228815</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>-0.8439365561534915</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>-0.8446704852172525</v>
       </c>
     </row>
   </sheetData>

--- a/PLSstatic_predicted_variables_matrix_6.xlsx
+++ b/PLSstatic_predicted_variables_matrix_6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV67"/>
+  <dimension ref="A1:AU67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,9 +575,6 @@
       <c r="AU1" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="n">
-        <v>47</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -721,9 +718,6 @@
       <c r="AU2" t="n">
         <v>-0.258392472257126</v>
       </c>
-      <c r="AV2" t="n">
-        <v>-0.2586527848871141</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -867,9 +861,6 @@
       <c r="AU3" t="n">
         <v>0.2379636961000998</v>
       </c>
-      <c r="AV3" t="n">
-        <v>0.2381354091438059</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1013,9 +1004,6 @@
       <c r="AU4" t="n">
         <v>0.2238192679967745</v>
       </c>
-      <c r="AV4" t="n">
-        <v>0.2239328811861263</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1159,9 +1147,6 @@
       <c r="AU5" t="n">
         <v>-0.07744203366758576</v>
       </c>
-      <c r="AV5" t="n">
-        <v>-0.0774899109817378</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1305,9 +1290,6 @@
       <c r="AU6" t="n">
         <v>0.1915141515619136</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0.1917110570762667</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1451,9 +1433,6 @@
       <c r="AU7" t="n">
         <v>-0.4207737623667647</v>
       </c>
-      <c r="AV7" t="n">
-        <v>-0.4211490220600636</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1597,9 +1576,6 @@
       <c r="AU8" t="n">
         <v>-0.1488420521158094</v>
       </c>
-      <c r="AV8" t="n">
-        <v>-0.1490199810400842</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1743,9 +1719,6 @@
       <c r="AU9" t="n">
         <v>-0.3459891296589245</v>
       </c>
-      <c r="AV9" t="n">
-        <v>-0.3463545608382064</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1889,9 +1862,6 @@
       <c r="AU10" t="n">
         <v>0.4003136566018292</v>
       </c>
-      <c r="AV10" t="n">
-        <v>0.4005923089491985</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2035,9 +2005,6 @@
       <c r="AU11" t="n">
         <v>-0.2171056034151783</v>
       </c>
-      <c r="AV11" t="n">
-        <v>-0.2173040852838485</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2181,9 +2148,6 @@
       <c r="AU12" t="n">
         <v>-0.1141323913055197</v>
       </c>
-      <c r="AV12" t="n">
-        <v>-0.1142667785191443</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2327,9 +2291,6 @@
       <c r="AU13" t="n">
         <v>-0.05572100025059325</v>
       </c>
-      <c r="AV13" t="n">
-        <v>-0.05566488944698936</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2473,9 +2434,6 @@
       <c r="AU14" t="n">
         <v>0.03109771147678592</v>
       </c>
-      <c r="AV14" t="n">
-        <v>0.03106032153631398</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2619,9 +2577,6 @@
       <c r="AU15" t="n">
         <v>-0.1222171598324814</v>
       </c>
-      <c r="AV15" t="n">
-        <v>-0.1223375412109014</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2765,9 +2720,6 @@
       <c r="AU16" t="n">
         <v>0.2978667217191321</v>
       </c>
-      <c r="AV16" t="n">
-        <v>0.2979161459053788</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2911,9 +2863,6 @@
       <c r="AU17" t="n">
         <v>0.4328273003053066</v>
       </c>
-      <c r="AV17" t="n">
-        <v>0.4333172857594444</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -3057,9 +3006,6 @@
       <c r="AU18" t="n">
         <v>-0.164877146533589</v>
       </c>
-      <c r="AV18" t="n">
-        <v>-0.1647534061721513</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -3203,9 +3149,6 @@
       <c r="AU19" t="n">
         <v>0.2994540705439053</v>
       </c>
-      <c r="AV19" t="n">
-        <v>0.299805464254811</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -3349,9 +3292,6 @@
       <c r="AU20" t="n">
         <v>0.1909861784129213</v>
       </c>
-      <c r="AV20" t="n">
-        <v>0.191039021819591</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3495,9 +3435,6 @@
       <c r="AU21" t="n">
         <v>0.4937948684099199</v>
       </c>
-      <c r="AV21" t="n">
-        <v>0.494044926903942</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -3641,9 +3578,6 @@
       <c r="AU22" t="n">
         <v>0.2536407735162199</v>
       </c>
-      <c r="AV22" t="n">
-        <v>0.2539091402697561</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -3787,9 +3721,6 @@
       <c r="AU23" t="n">
         <v>-0.1834872508534132</v>
       </c>
-      <c r="AV23" t="n">
-        <v>-0.1835324909989342</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -3933,9 +3864,6 @@
       <c r="AU24" t="n">
         <v>1.420070437733531</v>
       </c>
-      <c r="AV24" t="n">
-        <v>1.422701713227279</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -4079,9 +4007,6 @@
       <c r="AU25" t="n">
         <v>0.3446964205650844</v>
       </c>
-      <c r="AV25" t="n">
-        <v>0.3453450671199797</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -4225,9 +4150,6 @@
       <c r="AU26" t="n">
         <v>0.1615886777547654</v>
       </c>
-      <c r="AV26" t="n">
-        <v>0.1621930503537056</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -4371,9 +4293,6 @@
       <c r="AU27" t="n">
         <v>0.05759557246173123</v>
       </c>
-      <c r="AV27" t="n">
-        <v>0.05809287889567397</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -4517,9 +4436,6 @@
       <c r="AU28" t="n">
         <v>0.879471656737805</v>
       </c>
-      <c r="AV28" t="n">
-        <v>0.8806213676488962</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -4663,9 +4579,6 @@
       <c r="AU29" t="n">
         <v>1.781068863856453</v>
       </c>
-      <c r="AV29" t="n">
-        <v>1.78524845562885</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -4809,9 +4722,6 @@
       <c r="AU30" t="n">
         <v>0.7102486296137117</v>
       </c>
-      <c r="AV30" t="n">
-        <v>0.7113655676645472</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -4955,9 +4865,6 @@
       <c r="AU31" t="n">
         <v>-0.4261054581598434</v>
       </c>
-      <c r="AV31" t="n">
-        <v>-0.4259582636763231</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -5101,9 +5008,6 @@
       <c r="AU32" t="n">
         <v>0.5909403788564854</v>
       </c>
-      <c r="AV32" t="n">
-        <v>0.5917994765974509</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -5247,9 +5151,6 @@
       <c r="AU33" t="n">
         <v>0.8065133573963919</v>
       </c>
-      <c r="AV33" t="n">
-        <v>0.8074363369211268</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -5393,9 +5294,6 @@
       <c r="AU34" t="n">
         <v>-0.8515753903562984</v>
       </c>
-      <c r="AV34" t="n">
-        <v>-0.8518559366493881</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -5539,9 +5437,6 @@
       <c r="AU35" t="n">
         <v>0.8572608777203828</v>
       </c>
-      <c r="AV35" t="n">
-        <v>0.8580396984601936</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -5685,9 +5580,6 @@
       <c r="AU36" t="n">
         <v>0.8257172005963029</v>
       </c>
-      <c r="AV36" t="n">
-        <v>0.8264809266554278</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -5831,9 +5723,6 @@
       <c r="AU37" t="n">
         <v>0.790518433158212</v>
       </c>
-      <c r="AV37" t="n">
-        <v>0.7912556738378483</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -5977,9 +5866,6 @@
       <c r="AU38" t="n">
         <v>0.6880564593360069</v>
       </c>
-      <c r="AV38" t="n">
-        <v>0.6888164771760622</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -6123,9 +6009,6 @@
       <c r="AU39" t="n">
         <v>0.63930168734087</v>
       </c>
-      <c r="AV39" t="n">
-        <v>0.6398488462859105</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -6269,9 +6152,6 @@
       <c r="AU40" t="n">
         <v>0.818230535635097</v>
       </c>
-      <c r="AV40" t="n">
-        <v>0.8189565215336544</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6415,9 +6295,6 @@
       <c r="AU41" t="n">
         <v>0.6061001167301168</v>
       </c>
-      <c r="AV41" t="n">
-        <v>0.6066854792460702</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -6561,9 +6438,6 @@
       <c r="AU42" t="n">
         <v>0.6785922817076516</v>
       </c>
-      <c r="AV42" t="n">
-        <v>0.6793608098945328</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6707,9 +6581,6 @@
       <c r="AU43" t="n">
         <v>0.7176408476290314</v>
       </c>
-      <c r="AV43" t="n">
-        <v>0.7183652473714407</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -6853,9 +6724,6 @@
       <c r="AU44" t="n">
         <v>0.7429060655365345</v>
       </c>
-      <c r="AV44" t="n">
-        <v>0.7435410112531184</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -6999,9 +6867,6 @@
       <c r="AU45" t="n">
         <v>0.7607707624483063</v>
       </c>
-      <c r="AV45" t="n">
-        <v>0.7614313923618737</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -7145,9 +7010,6 @@
       <c r="AU46" t="n">
         <v>-1.377682429390258</v>
       </c>
-      <c r="AV46" t="n">
-        <v>-1.378687984664813</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -7291,9 +7153,6 @@
       <c r="AU47" t="n">
         <v>-1.072676127059772</v>
       </c>
-      <c r="AV47" t="n">
-        <v>-1.073437985404585</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -7437,9 +7296,6 @@
       <c r="AU48" t="n">
         <v>-0.9291298133834399</v>
       </c>
-      <c r="AV48" t="n">
-        <v>-0.9298110310227088</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -7583,9 +7439,6 @@
       <c r="AU49" t="n">
         <v>-0.6830820988841851</v>
       </c>
-      <c r="AV49" t="n">
-        <v>-0.6835741969437122</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -7729,9 +7582,6 @@
       <c r="AU50" t="n">
         <v>-0.08269895301103412</v>
       </c>
-      <c r="AV50" t="n">
-        <v>-0.08270021902830227</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7875,9 +7725,6 @@
       <c r="AU51" t="n">
         <v>-0.9031349244450213</v>
       </c>
-      <c r="AV51" t="n">
-        <v>-0.9038050845100686</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -8021,9 +7868,6 @@
       <c r="AU52" t="n">
         <v>-0.9031349244450213</v>
       </c>
-      <c r="AV52" t="n">
-        <v>-0.9038050845100686</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -8167,9 +8011,6 @@
       <c r="AU53" t="n">
         <v>-1.207901561698431</v>
       </c>
-      <c r="AV53" t="n">
-        <v>-1.208762899884084</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -8313,9 +8154,6 @@
       <c r="AU54" t="n">
         <v>-0.1978789517077503</v>
       </c>
-      <c r="AV54" t="n">
-        <v>-0.1980093382256047</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -8459,9 +8297,6 @@
       <c r="AU55" t="n">
         <v>-1.096859588865136</v>
       </c>
-      <c r="AV55" t="n">
-        <v>-1.097623392479397</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -8605,9 +8440,6 @@
       <c r="AU56" t="n">
         <v>-0.9647486579710868</v>
       </c>
-      <c r="AV56" t="n">
-        <v>-0.965448836026967</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -8751,9 +8583,6 @@
       <c r="AU57" t="n">
         <v>-1.038433690422825</v>
       </c>
-      <c r="AV57" t="n">
-        <v>-1.039229815925763</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8897,9 +8726,6 @@
       <c r="AU58" t="n">
         <v>-1.184993547871687</v>
       </c>
-      <c r="AV58" t="n">
-        <v>-1.186001671022881</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -9043,9 +8869,6 @@
       <c r="AU59" t="n">
         <v>-0.8556607745266851</v>
       </c>
-      <c r="AV59" t="n">
-        <v>-0.8563953038454845</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -9189,9 +9012,6 @@
       <c r="AU60" t="n">
         <v>-0.4802496846906508</v>
       </c>
-      <c r="AV60" t="n">
-        <v>-0.4806961021279775</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -9335,9 +9155,6 @@
       <c r="AU61" t="n">
         <v>0.391769148360246</v>
       </c>
-      <c r="AV61" t="n">
-        <v>0.3921153906496269</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -9481,9 +9298,6 @@
       <c r="AU62" t="n">
         <v>-1.315630330907531</v>
       </c>
-      <c r="AV62" t="n">
-        <v>-1.316611452988645</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -9627,9 +9441,6 @@
       <c r="AU63" t="n">
         <v>-0.6094077530688706</v>
       </c>
-      <c r="AV63" t="n">
-        <v>-0.6100765927758134</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -9773,9 +9584,6 @@
       <c r="AU64" t="n">
         <v>-0.9326027782923684</v>
       </c>
-      <c r="AV64" t="n">
-        <v>-0.9333880619970237</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -9919,9 +9727,6 @@
       <c r="AU65" t="n">
         <v>-0.06995739943403437</v>
       </c>
-      <c r="AV65" t="n">
-        <v>-0.07009294809912847</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -10065,9 +9870,6 @@
       <c r="AU66" t="n">
         <v>-0.8611634871888235</v>
       </c>
-      <c r="AV66" t="n">
-        <v>-0.8618445141239099</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -10210,9 +10012,6 @@
       </c>
       <c r="AU67" t="n">
         <v>-0.8439365561534915</v>
-      </c>
-      <c r="AV67" t="n">
-        <v>-0.8446704852172525</v>
       </c>
     </row>
   </sheetData>
